--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.029759555552</v>
+        <v>0.02030344227866666</v>
       </c>
       <c r="R2">
-        <v>0.267835999968</v>
+        <v>0.182730980508</v>
       </c>
       <c r="S2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="T2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I3">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J3">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -635,13 +635,13 @@
         <v>0.042419143332</v>
       </c>
       <c r="R3">
-        <v>0.381772289988</v>
+        <v>0.3817722899879999</v>
       </c>
       <c r="S3">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="T3">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H4">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I4">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J4">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.005137543610666667</v>
+        <v>0.002706872041333333</v>
       </c>
       <c r="R4">
-        <v>0.046237892496</v>
+        <v>0.024361848372</v>
       </c>
       <c r="S4">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="T4">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H5">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I5">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J5">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.036844266772</v>
+        <v>0.02744710786933333</v>
       </c>
       <c r="R5">
-        <v>0.331598400948</v>
+        <v>0.247023970824</v>
       </c>
       <c r="S5">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="T5">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H6">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I6">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J6">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.003971235118666667</v>
+        <v>0.005576878398666667</v>
       </c>
       <c r="R6">
-        <v>0.035741116068</v>
+        <v>0.050191905588</v>
       </c>
       <c r="S6">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="T6">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
     </row>
   </sheetData>
